--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -422,10 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +496,6 @@
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$G$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -428,7 +429,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +450,7 @@
     <col min="14" max="14" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -496,6 +497,6 @@
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$N$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$10:$N$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$G$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Item Code</t>
   </si>
@@ -70,13 +70,22 @@
   </si>
   <si>
     <t>Last Mod Date</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +101,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,18 +153,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,59 +527,154 @@
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A10:N10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,7 +133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -209,22 +217,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -512,9 +523,7 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -551,11 +560,11 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -569,11 +578,11 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="5"/>
@@ -582,37 +591,37 @@
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="7"/>
       <c r="J4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="7"/>
       <c r="J5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="7"/>
       <c r="J6" s="5"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
       <c r="J7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
       <c r="J8" s="5"/>
       <c r="N8" s="5"/>
     </row>

--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -220,23 +220,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,46 +582,46 @@
         <v>9</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="5"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6"/>
       <c r="J4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
       <c r="J5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6"/>
       <c r="J6" s="5"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
       <c r="J7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
       <c r="J8" s="5"/>
       <c r="N8" s="5"/>
     </row>
@@ -676,13 +676,13 @@
   </sheetData>
   <autoFilter ref="A10:N10"/>
   <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$10:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$10:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$G$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Item Code</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Purchase Cost</t>
   </si>
 </sst>
 </file>
@@ -226,17 +229,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +524,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,14 +539,15 @@
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -553,13 +557,14 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -571,13 +576,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -585,51 +591,51 @@
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="K3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="K4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="K5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="K6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="K7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -658,31 +664,34 @@
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:N10"/>
+  <autoFilter ref="A10:O10"/>
   <mergeCells count="7">
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/templates/Inventory.xlsx
+++ b/templates/Inventory.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$10:$O$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$11:$S$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transactopm Report'!$H$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Item Code</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>Purchase Cost</t>
+  </si>
+  <si>
+    <t>Accession no.</t>
+  </si>
+  <si>
+    <t>Acquisition Type</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Copyright Year</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -121,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +152,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -207,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -226,20 +244,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,30 +551,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -558,140 +589,191 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O10"/>
-  <mergeCells count="7">
+  <autoFilter ref="A11:S11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
